--- a/planeacion/Detalles_Admin_Sistema_v2.xlsx
+++ b/planeacion/Detalles_Admin_Sistema_v2.xlsx
@@ -60,12 +60,6 @@
     <t>add_Maestro</t>
   </si>
   <si>
-    <t>"</t>
-  </si>
-  <si>
-    <t>Sin funcionalidad</t>
-  </si>
-  <si>
     <t>home_Materias</t>
   </si>
   <si>
@@ -87,13 +81,19 @@
     <t>Detalles:</t>
   </si>
   <si>
-    <t>Los botones no funcionan</t>
-  </si>
-  <si>
     <t>Los enlaces (URL, URI, Helpers) no funcionan</t>
   </si>
   <si>
-    <t>Falta implementar la función de eliminar</t>
+    <t>delete_Curso</t>
+  </si>
+  <si>
+    <t>delete_Maestro</t>
+  </si>
+  <si>
+    <t>delete_Materias</t>
+  </si>
+  <si>
+    <t>delete_Salon</t>
   </si>
 </sst>
 </file>
@@ -159,19 +159,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -476,7 +477,7 @@
   <dimension ref="A1:P10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -485,27 +486,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="3" t="s">
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="4" t="s">
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -520,11 +521,8 @@
       <c r="D2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>9</v>
+      <c r="E2" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
@@ -540,22 +538,26 @@
       <c r="D3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="E3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="6"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>18</v>
+      <c r="E4" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
@@ -563,34 +565,35 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>21</v>
+      <c r="E5" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B10" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="B10" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/planeacion/Detalles_Admin_Sistema_v2.xlsx
+++ b/planeacion/Detalles_Admin_Sistema_v2.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>Curso</t>
   </si>
@@ -94,6 +94,30 @@
   </si>
   <si>
     <t>delete_Salon</t>
+  </si>
+  <si>
+    <t>Sesiones: Maestros, Administradores</t>
+  </si>
+  <si>
+    <t>Imprimir el horario</t>
+  </si>
+  <si>
+    <t>Drag and drop</t>
+  </si>
+  <si>
+    <t>home_Carrera</t>
+  </si>
+  <si>
+    <t>delete_Carrera</t>
+  </si>
+  <si>
+    <t>Carrera</t>
+  </si>
+  <si>
+    <t>edit_Carrera</t>
+  </si>
+  <si>
+    <t>add_Carrera</t>
   </si>
 </sst>
 </file>
@@ -124,12 +148,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -146,6 +164,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -159,20 +183,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -474,10 +497,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P10"/>
+  <dimension ref="A1:P15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -486,27 +509,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="4" t="s">
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="5" t="s">
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -515,7 +538,7 @@
       <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -524,6 +547,7 @@
       <c r="E2" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="F2" s="5"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -532,7 +556,7 @@
       <c r="B3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -541,7 +565,7 @@
       <c r="E3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="6"/>
+      <c r="F3" s="5"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -550,7 +574,7 @@
       <c r="B4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -559,6 +583,7 @@
       <c r="E4" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="F4" s="5"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -567,7 +592,7 @@
       <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D5" s="1" t="s">
@@ -577,23 +602,55 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B7" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B8" s="1" t="s">
-        <v>9</v>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B11" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B10" s="1"/>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B12" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B13" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B15" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="3">
